--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Use Case Diagram</t>
   </si>
@@ -93,13 +93,31 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>Mobile Login</t>
+  </si>
+  <si>
+    <t>Mobile QR Scanning</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>OTP Generation</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Lock/ Unlock File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +154,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +181,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,28 +347,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,10 +384,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -637,238 +729,428 @@
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="33">
         <v>43171</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="31"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
         <v>43171</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>2.1</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="34">
+        <v>43537</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>2.11</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="34">
+        <v>43537</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>2.12</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="C18" s="30">
+        <v>43537</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>2.4</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C21" s="30">
+        <v>43537</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C22" s="30">
+        <v>43537</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>2.7</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C23" s="30">
+        <v>43537</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="C24" s="30">
+        <v>43537</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18">
-        <v>43171</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="C25" s="30">
+        <v>43537</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>3.9</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
+        <v>3.11</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>3.12</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="B34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Use Case Diagram</t>
   </si>
@@ -98,13 +98,7 @@
     <t>Mobile Login</t>
   </si>
   <si>
-    <t>Mobile QR Scanning</t>
-  </si>
-  <si>
     <t>2.10</t>
-  </si>
-  <si>
-    <t>OTP Generation</t>
   </si>
   <si>
     <t>3.10</t>
@@ -354,7 +348,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -366,6 +360,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,28 +398,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -687,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -720,26 +712,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="25">
         <v>43171</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -748,7 +740,9 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="10">
+        <v>43172</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
@@ -857,264 +851,266 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="17">
         <v>2.9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="26">
         <v>43537</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="26">
+        <v>43537</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>2.11</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26">
+        <v>43537</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="23">
+        <v>43538</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="23">
+        <v>43537</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>3.9</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>2.11</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="B26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>3.11</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="34">
-        <v>43537</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>2.12</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="C27" s="13"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>3</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="30">
-        <v>43537</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>3.2</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="30">
-        <v>43537</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="30">
-        <v>43537</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="30">
-        <v>43537</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="30">
-        <v>43537</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>3.8</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="30">
-        <v>43537</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
-        <v>3.9</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
-        <v>3.11</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
-        <v>3.12</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="B32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>2</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>3</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>4</v>
+      <c r="A35" s="7">
+        <v>6</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1122,35 +1118,17 @@
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>5</v>
+      <c r="A36" s="5">
+        <v>7</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>6</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>7</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Use Case Diagram</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Lock/ Unlock File</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Admin-Account Recovery</t>
+  </si>
+  <si>
+    <t>Admin-Delete User</t>
   </si>
 </sst>
 </file>
@@ -341,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,7 +376,6 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -398,12 +411,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -679,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -712,26 +728,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25">
-        <v>43171</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="24">
+        <v>43173</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -851,284 +867,364 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>2.9</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="26">
-        <v>43537</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="25">
+        <v>43172</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26">
-        <v>43537</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="25">
+        <v>43172</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>2.11</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="26">
-        <v>43537</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="25">
+        <v>43172</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="25">
+        <v>43173</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>2.13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25">
+        <v>43173</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>3.1</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="23">
-        <v>43537</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="23">
-        <v>43538</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="23">
-        <v>43537</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="22">
+        <v>43172</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="23">
-        <v>43537</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="22">
+        <v>43172</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="23">
-        <v>43537</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="22">
+        <v>43172</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="23">
-        <v>43537</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="22">
+        <v>43172</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="23">
-        <v>43537</v>
+        <v>11</v>
+      </c>
+      <c r="C23" s="22">
+        <v>43172</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="23">
-        <v>43537</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="22">
+        <v>43172</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="22">
+        <v>43172</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="22">
+        <v>43172</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>3.9</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="C27" s="32">
+        <v>43173</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="C28" s="32">
+        <v>43173</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
         <v>3.11</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
-        <v>4</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="32">
+        <v>43173</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="20">
+        <v>3.12</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="32">
+        <v>43173</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>2</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="20">
+        <v>3.13</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="32">
+        <v>43173</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>4</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="7">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>5</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row r="34" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>6</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>7</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$52</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Use Case Diagram</t>
   </si>
@@ -98,15 +101,6 @@
     <t>Mobile Login</t>
   </si>
   <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>Lock/ Unlock File</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -117,13 +111,133 @@
   </si>
   <si>
     <t>Admin-Delete User</t>
+  </si>
+  <si>
+    <t>Change Registered Mobile</t>
+  </si>
+  <si>
+    <t>Register Account</t>
+  </si>
+  <si>
+    <t>OTP Genration</t>
+  </si>
+  <si>
+    <t>Change Registered Computer</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>2.3.6</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Admin Delete User</t>
+  </si>
+  <si>
+    <t>Admin Account Recover</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>3.1.6</t>
+  </si>
+  <si>
+    <t>3.1.7</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>3.1.9</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>3.3.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,8 +290,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +340,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -362,7 +494,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,13 +518,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,7 +541,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -695,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -737,17 +875,17 @@
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>43173</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -763,8 +901,8 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2.1</v>
+      <c r="A5" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>7</v>
@@ -776,8 +914,8 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2.2000000000000002</v>
+      <c r="A6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
@@ -789,8 +927,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2.2999999999999998</v>
+      <c r="A7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>9</v>
@@ -802,11 +940,11 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>2.4</v>
+      <c r="A8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10">
         <v>43171</v>
@@ -815,11 +953,11 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>2.5</v>
+      <c r="A9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10">
         <v>43171</v>
@@ -828,11 +966,11 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>2.6</v>
+      <c r="A10" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="10">
         <v>43171</v>
@@ -841,11 +979,11 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>2.7</v>
+      <c r="A11" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10">
         <v>43171</v>
@@ -854,11 +992,11 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>2.8</v>
+      <c r="A12" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="10">
         <v>43171</v>
@@ -867,367 +1005,476 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>2.9</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C17" s="24">
         <v>43172</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="25">
-        <v>43172</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>2.11</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="25">
-        <v>43172</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>2.12</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="25">
-        <v>43173</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>2.13</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="25">
-        <v>43173</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="24">
+        <v>43172</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="24">
+        <v>43172</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="24">
+        <v>43173</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="24">
+        <v>43173</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>3</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>3.1</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="22">
-        <v>43172</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="22">
-        <v>43172</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="22">
-        <v>43172</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="22">
-        <v>43172</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="22">
-        <v>43172</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>43172</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>3.7</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="A25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="21">
         <v>43172</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="22">
+      <c r="A26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21">
         <v>43172</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>3.9</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="32">
-        <v>43173</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="21">
+        <v>43172</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="21">
+        <v>43172</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>43172</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="21">
+        <v>43172</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="21">
+        <v>43172</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="36">
+        <v>43172</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="36">
+        <v>43172</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="36">
+        <v>43172</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C39" s="36">
         <v>43173</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
-        <v>3.11</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="36">
         <v>43173</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
-        <v>3.12</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="35">
+        <v>3.13</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="36">
         <v>43173</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
-        <v>3.13</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="32">
-        <v>43173</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>4</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>5</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
-        <v>6</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>2</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>3</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>4</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>5</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>6</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>7</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>2</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>4</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>